--- a/df_2/df_2_13.xlsx
+++ b/df_2/df_2_13.xlsx
@@ -641,347 +641,347 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0369 %</t>
+          <t>1,0369</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1024 %</t>
+          <t>1,1024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.7331 %</t>
+          <t>0,7331</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.9459 %</t>
+          <t>0,9459</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8452 %</t>
+          <t>0,8452</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0955 %</t>
+          <t>1,0955</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.7598 %</t>
+          <t>0,7598</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5218 %</t>
+          <t>0,5218</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.0998 %</t>
+          <t>1,0998</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.8907 %</t>
+          <t>0,8907</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.598 %</t>
+          <t>0,598</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.5573 %</t>
+          <t>0,5573</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.8327 %</t>
+          <t>0,8327</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.4396 %</t>
+          <t>0,4396</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5254 %</t>
+          <t>0,5254</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.5105 %</t>
+          <t>0,5105</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.7581 %</t>
+          <t>0,7581</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.3806 %</t>
+          <t>0,3806</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.6092 %</t>
+          <t>0,6092</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.457 %</t>
+          <t>0,457</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.7631 %</t>
+          <t>0,7631</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.6197 %</t>
+          <t>0,6197</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.4916 %</t>
+          <t>0,4916</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.5169 %</t>
+          <t>0,5169</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.5552 %</t>
+          <t>0,5552</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.458 %</t>
+          <t>0,458</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.3659 %</t>
+          <t>0,3659</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5856 %</t>
+          <t>0,5856</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.8364 %</t>
+          <t>0,8364</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.5187 %</t>
+          <t>0,5187</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.519 %</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6764 %</t>
+          <t>0,6764</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.8416 %</t>
+          <t>0,8416</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.4136 %</t>
+          <t>0,4136</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.5864 %</t>
+          <t>0,5864</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.7482 %</t>
+          <t>0,7482</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.5837 %</t>
+          <t>0,5837</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.4185 %</t>
+          <t>0,4185</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2746 %</t>
+          <t>0,2746</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.4356 %</t>
+          <t>0,4356</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4249 %</t>
+          <t>0,4249</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.6518 %</t>
+          <t>0,6518</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.2242 %</t>
+          <t>1,2242</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1.3404 %</t>
+          <t>1,3404</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1.3813 %</t>
+          <t>1,3813</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.6661 %</t>
+          <t>0,6661</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.5744 %</t>
+          <t>0,5744</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.5377 %</t>
+          <t>0,5377</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.4566 %</t>
+          <t>0,4566</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.6939 %</t>
+          <t>0,6939</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.8448 %</t>
+          <t>0,8448</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.9164 %</t>
+          <t>0,9164</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.3874 %</t>
+          <t>0,3874</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.6334 %</t>
+          <t>0,6334</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.6776 %</t>
+          <t>0,6776</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.7154 %</t>
+          <t>0,7154</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.5063 %</t>
+          <t>0,5063</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.2867 %</t>
+          <t>0,2867</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>1.1011 %</t>
+          <t>1,1011</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>1.038 %</t>
+          <t>1,038</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.492 %</t>
+          <t>0,492</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.7991 %</t>
+          <t>0,7991</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.6018 %</t>
+          <t>0,6018</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.6568 %</t>
+          <t>0,6568</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.7377 %</t>
+          <t>0,7377</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>1.0106 %</t>
+          <t>1,0106</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.9671 %</t>
+          <t>0,9671</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.7615 %</t>
+          <t>0,7615</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.6297 %</t>
+          <t>0,6297</t>
         </is>
       </c>
     </row>
@@ -993,242 +993,242 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.7666 %</t>
+          <t>5,7666</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3934 %</t>
+          <t>0,3934</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3987 %</t>
+          <t>0,3987</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.4262 %</t>
+          <t>1,4262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.7093 %</t>
+          <t>0,7093</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5308 %</t>
+          <t>1,5308</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.1283 %</t>
+          <t>1,1283</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5775 %</t>
+          <t>0,5775</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.251 %</t>
+          <t>0,251</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.8332 %</t>
+          <t>0,8332</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.4028 %</t>
+          <t>0,4028</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4694 %</t>
+          <t>0,4694</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.2205 %</t>
+          <t>0,2205</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.3523 %</t>
+          <t>0,3523</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.0182 %</t>
+          <t>1,0182</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.5003 %</t>
+          <t>0,5003</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.6266 %</t>
+          <t>0,6266</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.7574 %</t>
+          <t>0,7574</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.0632 %</t>
+          <t>1,0632</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.9717 %</t>
+          <t>0,9717</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.873 %</t>
+          <t>0,873</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.6858 %</t>
+          <t>0,6858</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.2098 %</t>
+          <t>1,2098</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.7477 %</t>
+          <t>0,7477</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.559 %</t>
+          <t>0,559</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.475 %</t>
+          <t>0,475</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.1628 %</t>
+          <t>1,1628</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.3184 %</t>
+          <t>1,3184</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1.7146 %</t>
+          <t>1,7146</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5805 %</t>
+          <t>0,5805</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.5896 %</t>
+          <t>0,5896</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.4834 %</t>
+          <t>0,4834</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.5342 %</t>
+          <t>0,5342</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2723 %</t>
+          <t>0,2723</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.4523 %</t>
+          <t>0,4523</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3441 %</t>
+          <t>0,3441</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.3153 %</t>
+          <t>0,3153</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.7599 %</t>
+          <t>0,7599</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1.2443 %</t>
+          <t>1,2443</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.3983 %</t>
+          <t>0,3983</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.2993 %</t>
+          <t>0,2993</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4771 %</t>
+          <t>0,4771</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4368 %</t>
+          <t>0,4368</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.2326 %</t>
+          <t>0,2326</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.4116 %</t>
+          <t>0,4116</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.4894 %</t>
+          <t>0,4894</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.3299 %</t>
+          <t>0,3299</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1.6636 %</t>
+          <t>1,6636</t>
         </is>
       </c>
     </row>
@@ -1240,197 +1240,197 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.5816 %</t>
+          <t>3,5816</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.3594 %</t>
+          <t>9,3594</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.853 %</t>
+          <t>4,853</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.9961 %</t>
+          <t>2,9961</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.0771 %</t>
+          <t>2,0771</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6312 %</t>
+          <t>1,6312</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.91 %</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4032 %</t>
+          <t>0,4032</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2927 %</t>
+          <t>0,2927</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.2111 %</t>
+          <t>0,2111</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.2645 %</t>
+          <t>0,2645</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.3481 %</t>
+          <t>0,3481</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.3186 %</t>
+          <t>0,3186</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.3216 %</t>
+          <t>0,3216</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.3328 %</t>
+          <t>0,3328</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3903 %</t>
+          <t>0,3903</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.5342 %</t>
+          <t>0,5342</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.755 %</t>
+          <t>0,755</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.6564 %</t>
+          <t>0,6564</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.7307 %</t>
+          <t>0,7307</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.8302 %</t>
+          <t>0,8302</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.8583 %</t>
+          <t>0,8583</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.8237 %</t>
+          <t>0,8237</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.893 %</t>
+          <t>0,893</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.8709 %</t>
+          <t>0,8709</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.6587 %</t>
+          <t>0,6587</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5548 %</t>
+          <t>0,5548</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.4425 %</t>
+          <t>0,4425</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.3725 %</t>
+          <t>0,3725</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.574 %</t>
+          <t>0,574</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.6702 %</t>
+          <t>0,6702</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.6803 %</t>
+          <t>0,6803</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.7483 %</t>
+          <t>0,7483</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.9108 %</t>
+          <t>0,9108</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.1328 %</t>
+          <t>1,1328</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1.3892 %</t>
+          <t>1,3892</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2.6135 %</t>
+          <t>2,6135</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1.6601 %</t>
+          <t>1,6601</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.6208 %</t>
+          <t>1,6208</t>
         </is>
       </c>
     </row>
